--- a/Real Estate Investing.xlsx
+++ b/Real Estate Investing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/armaangupta/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/armaangupta/Documents/Repositories/propdeals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4DC14A-C7F5-E443-9DA1-908CD0C3390A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD7F2FB-B68C-0447-BD63-35B930EE3DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{67465143-DB62-C44E-BBF5-8788FB07B9BE}"/>
+    <workbookView xWindow="41740" yWindow="1540" windowWidth="30240" windowHeight="18880" xr2:uid="{67465143-DB62-C44E-BBF5-8788FB07B9BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Assumptions" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="101">
   <si>
     <t>Purchase Price</t>
   </si>
@@ -315,9 +315,6 @@
     <t>5% Down</t>
   </si>
   <si>
-    <t>10% Down</t>
-  </si>
-  <si>
     <t>Monthly Cost</t>
   </si>
   <si>
@@ -352,18 +349,34 @@
   </si>
   <si>
     <t>Cash on Cash Return Y1</t>
+  </si>
+  <si>
+    <t>FHA</t>
+  </si>
+  <si>
+    <t>Base Loan Amount</t>
+  </si>
+  <si>
+    <t>FHA Fees Rolled into Loan</t>
+  </si>
+  <si>
+    <t>This sheet seems like it won't work well</t>
+  </si>
+  <si>
+    <t>Might be good to make a script to run an "analyze" script and get a table with all real time data from all sheets</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="181" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -481,7 +494,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -524,12 +537,11 @@
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
@@ -542,15 +554,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -560,16 +565,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1111,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A517275-267E-E641-A05A-83ABAE510915}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="174" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1143,14 +1155,14 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2">
-        <v>0.02</v>
+      <c r="B2" s="40">
+        <v>1.5650000000000001E-2</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="E2">
-        <v>0.05</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1162,10 +1174,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1223,7 +1235,7 @@
         <v>39</v>
       </c>
       <c r="B10" s="7">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1241,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0F9038-1584-614A-A192-6E2128C52C76}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1260,101 +1272,101 @@
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="36" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36" t="s">
+      <c r="P1" s="35"/>
+    </row>
+    <row r="2" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="35"/>
+      <c r="B2" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36" t="s">
+      <c r="C2" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="P1" s="36"/>
-    </row>
-    <row r="2" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36"/>
-      <c r="B2" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="38" t="s">
+      <c r="H2" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="N2" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="32" t="s">
         <v>83</v>
-      </c>
-      <c r="P2" s="38" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="39" cm="1">
+        <v>86</v>
+      </c>
+      <c r="B3" s="34" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">INDIRECT("'"&amp;$A3&amp;"'!B5",TRUE)</f>
         <v>6</v>
       </c>
-      <c r="C3" s="39" cm="1">
+      <c r="C3" s="34" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">INDIRECT("'"&amp;$A3&amp;"'!B6",TRUE)</f>
         <v>4</v>
       </c>
-      <c r="D3" s="39" cm="1">
+      <c r="D3" s="34" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">INDIRECT("'"&amp;$A3&amp;"'!B4",TRUE)</f>
         <v>2509</v>
       </c>
-      <c r="E3" s="39" cm="1">
+      <c r="E3" s="34" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDIRECT("'"&amp;$A3&amp;"'!B2",TRUE)</f>
         <v>4</v>
       </c>
@@ -1364,62 +1376,62 @@
       </c>
       <c r="G3" s="10" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDIRECT("'"&amp;$A3&amp;"'!B33",TRUE)</f>
-        <v>31950</v>
+        <v>142.53904401966321</v>
       </c>
       <c r="H3" s="10" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">INDIRECT("'"&amp;$A3&amp;"'!C33",TRUE)</f>
-        <v>49700</v>
+        <v>140.41250305324002</v>
       </c>
       <c r="I3" s="10" cm="1">
         <f t="array" aca="1" ref="I3" ca="1">INDIRECT("'"&amp;$A3&amp;"'!B32",TRUE)</f>
-        <v>3521.9080272559486</v>
+        <v>237.56507336610531</v>
       </c>
       <c r="J3" s="10" cm="1">
         <f t="array" aca="1" ref="J3" ca="1">INDIRECT("'"&amp;$A3&amp;"'!C32",TRUE)</f>
-        <v>3384.189183716162</v>
+        <v>234.02083842206667</v>
       </c>
       <c r="K3" s="10" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">INDIRECT("'"&amp;$A3&amp;"'!B44",TRUE)</f>
-        <v>-846.90802725594858</v>
+        <v>0</v>
       </c>
       <c r="L3" s="10" cm="1">
         <f t="array" aca="1" ref="L3" ca="1">INDIRECT("'"&amp;$A3&amp;"'!C44",TRUE)</f>
-        <v>-709.18918371616201</v>
+        <v>3500</v>
       </c>
       <c r="M3" s="7" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">INDIRECT("'"&amp;$A3&amp;"'!B51",TRUE)</f>
-        <v>-6.1712752833657984E-5</v>
+        <v>0</v>
       </c>
       <c r="N3" s="7" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">INDIRECT("'"&amp;$A3&amp;"'!C51",TRUE)</f>
-        <v>3.2622765150376902E-4</v>
+        <v>0</v>
       </c>
       <c r="O3" s="7" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDIRECT("'"&amp;$A3&amp;"'!B52",TRUE)</f>
-        <v>-2.6507293497838768E-2</v>
+        <v>-1.5658732331803741E-3</v>
       </c>
       <c r="P3" s="7" cm="1">
         <f t="array" aca="1" ref="P3" ca="1">INDIRECT("'"&amp;$A3&amp;"'!C52",TRUE)</f>
-        <v>-1.4269400074771871E-2</v>
+        <v>-1.4300940916622737E-3</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="39" cm="1">
+        <v>87</v>
+      </c>
+      <c r="B4" s="34" cm="1">
         <f t="array" aca="1" ref="B4" ca="1">INDIRECT("'"&amp;$A4&amp;"'!B5",TRUE)</f>
         <v>5</v>
       </c>
-      <c r="C4" s="39" cm="1">
+      <c r="C4" s="34" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">INDIRECT("'"&amp;$A4&amp;"'!B6",TRUE)</f>
         <v>4</v>
       </c>
-      <c r="D4" s="39" cm="1">
+      <c r="D4" s="34" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">INDIRECT("'"&amp;$A4&amp;"'!B4",TRUE)</f>
         <v>2463</v>
       </c>
-      <c r="E4" s="39" cm="1">
+      <c r="E4" s="34" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDIRECT("'"&amp;$A4&amp;"'!B2",TRUE)</f>
         <v>4</v>
       </c>
@@ -1429,43 +1441,53 @@
       </c>
       <c r="G4" s="10" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT("'"&amp;$A4&amp;"'!B33",TRUE)</f>
-        <v>23841</v>
+        <v>106.36223312903883</v>
       </c>
       <c r="H4" s="10" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">INDIRECT("'"&amp;$A4&amp;"'!C33",TRUE)</f>
-        <v>37086</v>
+        <v>103.41528378253118</v>
       </c>
       <c r="I4" s="10" cm="1">
         <f t="array" aca="1" ref="I4" ca="1">INDIRECT("'"&amp;$A4&amp;"'!B32",TRUE)</f>
-        <v>2628.0378490707067</v>
+        <v>177.27038854839805</v>
       </c>
       <c r="J4" s="10" cm="1">
         <f t="array" aca="1" ref="J4" ca="1">INDIRECT("'"&amp;$A4&amp;"'!C32",TRUE)</f>
-        <v>2525.2724359617218</v>
+        <v>172.3588063042186</v>
       </c>
       <c r="K4" s="10" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">INDIRECT("'"&amp;$A4&amp;"'!B44",TRUE)</f>
-        <v>511.96215092929333</v>
+        <v>0</v>
       </c>
       <c r="L4" s="10" cm="1">
         <f t="array" aca="1" ref="L4" ca="1">INDIRECT("'"&amp;$A4&amp;"'!C44",TRUE)</f>
-        <v>614.72756403827816</v>
+        <v>3880</v>
       </c>
       <c r="M4" s="7" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">INDIRECT("'"&amp;$A4&amp;"'!B51",TRUE)</f>
-        <v>5.6714027222165043E-2</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">INDIRECT("'"&amp;$A4&amp;"'!C51",TRUE)</f>
-        <v>6.1369312074214186E-2</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDIRECT("'"&amp;$A4&amp;"'!B52",TRUE)</f>
-        <v>0.2576882601883948</v>
+        <v>3.3029341596456922E-2</v>
       </c>
       <c r="P4" s="7" cm="1">
         <f t="array" aca="1" ref="P4" ca="1">INDIRECT("'"&amp;$A4&amp;"'!C52",TRUE)</f>
-        <v>0.19890877335003337</v>
+        <v>3.605527675028887E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1618,10 +1640,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F355B3-6BD6-CE4E-A559-46E215893205}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="219" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A16" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1637,11 +1659,11 @@
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="E1" s="29" t="s">
+      <c r="C1" s="36"/>
+      <c r="E1" s="28" t="s">
         <v>65</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1649,10 +1671,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="9" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="26">
         <v>4</v>
       </c>
       <c r="E2" t="s">
@@ -1782,10 +1804,10 @@
         <v>31</v>
       </c>
       <c r="B16" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1793,12 +1815,12 @@
         <v>27</v>
       </c>
       <c r="B17" s="15">
-        <f>IF(B16="Conventional - 5%",0.05,0.1)</f>
+        <f>IF(B16="Conventional - 5%",0.05,0.035)</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C17" s="15">
+        <f>IF(C16="Conventional - 5%",0.05,0.035)</f>
         <v>0.05</v>
-      </c>
-      <c r="C17" s="15">
-        <f>IF(C16="Conventional - 5%",0.05,0.1)</f>
-        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1807,460 +1829,485 @@
       </c>
       <c r="B18" s="12">
         <f>$B$3*B17</f>
-        <v>13245</v>
+        <v>9271.5</v>
       </c>
       <c r="C18" s="12">
         <f>$B$3*C17</f>
-        <v>26490</v>
+        <v>13245</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="B19" s="12">
         <f>$B$3-B18</f>
-        <v>251655</v>
+        <v>255628.5</v>
       </c>
       <c r="C19" s="12">
         <f>$B$3-C18</f>
-        <v>238410</v>
+        <v>251655</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="12">
+        <f>B3*Assumptions!$B$7</f>
+        <v>4635.75</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="12">
+        <f>B19+B20</f>
+        <v>260264.25</v>
+      </c>
+      <c r="C21" s="12">
+        <f>C19+C20</f>
+        <v>251655</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B22" s="14">
         <f>Assumptions!$B$6</f>
         <v>6.2199999999999998E-2</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C22" s="14">
         <f>Assumptions!$B$6</f>
         <v>6.2199999999999998E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="25">
-        <f>PMT(B20/12,Assumptions!$B$9*12, -'518 35th St'!B19)</f>
+      <c r="B23" s="23">
+        <f>PMT(B22/12,Assumptions!$B$9*12, -'518 35th St'!B21)</f>
+        <v>1597.4170688307763</v>
+      </c>
+      <c r="C23" s="23">
+        <f>PMT(C22/12,Assumptions!$B$9*12, -'518 35th St'!C21)</f>
         <v>1544.5763006506234</v>
       </c>
-      <c r="C21" s="25">
-        <f>PMT(C20/12,Assumptions!$B$9*12, -'518 35th St'!C19)</f>
-        <v>1463.2828111426959</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="11">
-        <f>B19*Assumptions!$B$8</f>
+      <c r="B24" s="11">
+        <f>B21*Assumptions!$B$8</f>
+        <v>2212.2461250000001</v>
+      </c>
+      <c r="C24" s="11">
+        <f>C21*Assumptions!$B$8</f>
         <v>2139.0675000000001</v>
       </c>
-      <c r="C22" s="11">
-        <f>C19*Assumptions!$B$8</f>
-        <v>2026.4850000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="11">
-        <f>B22/12</f>
+      <c r="B25" s="11">
+        <f>B24/12</f>
+        <v>184.35384375000001</v>
+      </c>
+      <c r="C25" s="11">
+        <f>C24/12</f>
         <v>178.25562500000001</v>
       </c>
-      <c r="C23" s="11">
-        <f>C22/12</f>
-        <v>168.87375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="21">
-        <f>B23*12*Assumptions!$B$9</f>
+      <c r="B26" s="21">
+        <f>B25*12*Assumptions!$B$9</f>
+        <v>66367.383750000008</v>
+      </c>
+      <c r="C26" s="21">
+        <f>C25*12*Assumptions!$B$9</f>
         <v>64172.025000000001</v>
-      </c>
-      <c r="C24" s="21">
-        <f>C23*12*Assumptions!$B$9</f>
-        <v>60794.55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="12">
-        <f>$B$3*Assumptions!$B$2</f>
-        <v>5298</v>
-      </c>
-      <c r="C25" s="12">
-        <f>$B$3*Assumptions!$B$2</f>
-        <v>5298</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="12">
-        <f>B25/12</f>
-        <v>441.5</v>
-      </c>
-      <c r="C26" s="12">
-        <f>C25/12</f>
-        <v>441.5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B27" s="12">
-        <f>$B$3*Assumptions!$B$10</f>
-        <v>1854.3</v>
+        <f>$B$3*Assumptions!$B$2</f>
+        <v>4145.6850000000004</v>
       </c>
       <c r="C27" s="12">
-        <f>$B$3*Assumptions!$B$10</f>
-        <v>1854.3</v>
+        <f>$B$3*Assumptions!$B$2</f>
+        <v>4145.6850000000004</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="12">
         <f>B27/12</f>
-        <v>154.52500000000001</v>
+        <v>345.47375000000005</v>
       </c>
       <c r="C28" s="12">
         <f>C27/12</f>
-        <v>154.52500000000001</v>
+        <v>345.47375000000005</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="12">
+        <f>$B$3*Assumptions!$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="12">
+        <f>$B$3*Assumptions!$B$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="12">
+        <f>B29/12</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="12">
+        <f>C29/12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="25">
-        <f>B21+B23+B28+B26</f>
-        <v>2318.8569256506235</v>
-      </c>
-      <c r="C29" s="25">
-        <f>C21+C23+C28+C26</f>
-        <v>2228.181561142696</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="B31" s="23">
+        <f>B23+B25+B30+B28</f>
+        <v>2127.2446625807765</v>
+      </c>
+      <c r="C31" s="23">
+        <f>C23+C25+C30+C28</f>
+        <v>2068.3056756506235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="23">
-        <f>Assumptions!$B$3*'518 35th St'!B29</f>
-        <v>193.23807713755195</v>
-      </c>
-      <c r="C30" s="23">
-        <f>Assumptions!$B$3*'518 35th St'!C29</f>
-        <v>185.68179676189132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="B32" s="23">
+        <f>Assumptions!$B$3*'518 35th St'!B31</f>
+        <v>177.27038854839805</v>
+      </c>
+      <c r="C32" s="23">
+        <f>Assumptions!$B$3*'518 35th St'!C31</f>
+        <v>172.3588063042186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="11">
-        <f>B29*Assumptions!$B$4</f>
-        <v>115.94284628253118</v>
-      </c>
-      <c r="C31" s="11">
-        <f>C29*Assumptions!$B$4</f>
-        <v>111.40907805713481</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
+      <c r="B33" s="11">
+        <f>B31*Assumptions!$B$4</f>
+        <v>106.36223312903883</v>
+      </c>
+      <c r="C33" s="11">
+        <f>C31*Assumptions!$B$4</f>
+        <v>103.41528378253118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="33">
-        <f>SUM(B29:B31)</f>
-        <v>2628.0378490707067</v>
-      </c>
-      <c r="C32" s="33">
-        <f>SUM(C29:C31)</f>
-        <v>2525.2724359617218</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
+      <c r="B34" s="29">
+        <f>SUM(B31:B33)</f>
+        <v>2410.8772842582134</v>
+      </c>
+      <c r="C34" s="29">
+        <f>SUM(C31:C33)</f>
+        <v>2344.0797657373732</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="34">
+      <c r="B35" s="30">
         <f>SUM(B13,B18)</f>
+        <v>19867.5</v>
+      </c>
+      <c r="C35" s="30">
+        <f>SUM(C13,C18)</f>
         <v>23841</v>
       </c>
-      <c r="C33" s="34">
-        <f>SUM(C13,C18)</f>
-        <v>37086</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>57</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="19">
-        <f>VLOOKUP(B37,$E$2:$F$7,2,FALSE)</f>
-        <v>740</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="19">
-        <f>VLOOKUP(B38,$E$2:$F$5,2,FALSE)</f>
-        <v>840</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C39" s="19">
-        <f>VLOOKUP(B39,$E$2:$F$5,2,FALSE)</f>
-        <v>1150</v>
+        <f>VLOOKUP(B39,$E$2:$F$7,2,FALSE)</f>
+        <v>740</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="19">
         <f>VLOOKUP(B40,$E$2:$F$5,2,FALSE)</f>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="19">
+        <f>VLOOKUP(B41,$E$2:$F$5,2,FALSE)</f>
         <v>1150</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="31"/>
-    </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="12">
-        <f>SUM(C37:C40)</f>
-        <v>3880</v>
+      <c r="A42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="19">
+        <f>VLOOKUP(B42,$E$2:$F$5,2,FALSE)</f>
+        <v>1150</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="12">
-        <f>C42-VLOOKUP(B41,A37:C40,3,FALSE)</f>
-        <v>3140</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="37"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" s="32">
-        <f>C43-B32</f>
-        <v>511.96215092929333</v>
-      </c>
-      <c r="C44" s="32">
-        <f>C43-C32</f>
-        <v>614.72756403827816</v>
+        <v>60</v>
+      </c>
+      <c r="C44" s="12">
+        <f>SUM(C39:C42)</f>
+        <v>3880</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="32">
-        <f>C42-B32</f>
-        <v>1251.9621509292933</v>
-      </c>
-      <c r="C45" s="32">
-        <f>C42-C32</f>
-        <v>1354.7275640382782</v>
+        <v>62</v>
+      </c>
+      <c r="C45" s="12">
+        <f>C44-VLOOKUP(B43,A39:C42,3,FALSE)</f>
+        <v>3140</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="32">
-        <f>B44*12</f>
-        <v>6143.54581115152</v>
-      </c>
-      <c r="C46" s="32">
-        <f>C44*12</f>
-        <v>7376.7307684593379</v>
+        <v>77</v>
+      </c>
+      <c r="B46" s="12">
+        <f>C45-B34</f>
+        <v>729.12271574178658</v>
+      </c>
+      <c r="C46" s="12">
+        <f>C45-C34</f>
+        <v>795.92023426262676</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="12">
+        <f>C44-B34</f>
+        <v>1469.1227157417866</v>
+      </c>
+      <c r="C47" s="12">
+        <f>C44-C34</f>
+        <v>1535.9202342626268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="12">
+        <f>B46*12</f>
+        <v>8749.4725889014389</v>
+      </c>
+      <c r="C48" s="12">
+        <f>C46*12</f>
+        <v>9551.0428111515212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B47" s="32">
-        <f>B45*12</f>
-        <v>15023.54581115152</v>
-      </c>
-      <c r="C47" s="32">
-        <f>C45*12</f>
-        <v>16256.730768459338</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="28"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="35" t="s">
+      <c r="B49" s="12">
+        <f>B47*12</f>
+        <v>17629.472588901437</v>
+      </c>
+      <c r="C49" s="12">
+        <f>C47*12</f>
+        <v>18431.042811151521</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="27"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="31" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="28" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="7">
+        <f>B48/$B$3</f>
+        <v>3.3029341596456922E-2</v>
+      </c>
+      <c r="C52" s="7">
+        <f>C48/$B$3</f>
+        <v>3.605527675028887E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="7">
-        <f>B46/$B$3</f>
-        <v>2.3191943416955529E-2</v>
-      </c>
-      <c r="C50" s="7">
-        <f>C46/$B$3</f>
-        <v>2.7847228269004674E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" s="7">
-        <f>B47/$B$3</f>
-        <v>5.6714027222165043E-2</v>
-      </c>
-      <c r="C51" s="7">
-        <f>C47/$B$3</f>
-        <v>6.1369312074214186E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="28" t="s">
+      <c r="B53" s="7">
+        <f>B49/$B$3</f>
+        <v>6.6551425401666434E-2</v>
+      </c>
+      <c r="C53" s="7">
+        <f>C49/$B$3</f>
+        <v>6.9577360555498374E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="7">
-        <f>B46/B$33</f>
-        <v>0.2576882601883948</v>
-      </c>
-      <c r="C52" s="7">
-        <f>C46/C33</f>
-        <v>0.19890877335003337</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="28" t="s">
+      <c r="B54" s="7">
+        <f>B48/B$35</f>
+        <v>0.44039122128609232</v>
+      </c>
+      <c r="C54" s="7">
+        <f>C48/C35</f>
+        <v>0.40061418611432076</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="7">
-        <f>B47/B$33</f>
-        <v>0.63015585802405605</v>
-      </c>
-      <c r="C53" s="7">
-        <f>C47/C$33</f>
-        <v>0.43835222910152988</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="28" t="s">
+      <c r="B55" s="7">
+        <f>B49/B$35</f>
+        <v>0.88735233868888574</v>
+      </c>
+      <c r="C55" s="7">
+        <f>C49/C$35</f>
+        <v>0.77308178394998206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="41">
-        <f>$B$3/C$42</f>
+      <c r="B56" s="38">
+        <f>$B$3/C$44</f>
         <v>68.273195876288653</v>
       </c>
-      <c r="C54" s="41"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="28" t="s">
+      <c r="C56" s="38"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="28" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="28" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="28" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="27" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B56:C56"/>
   </mergeCells>
-  <conditionalFormatting sqref="B44:C45">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="between">
-      <formula>100</formula>
-      <formula>-150</formula>
+  <conditionalFormatting sqref="B23:C23">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="between">
+      <formula>1300</formula>
+      <formula>1500</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="11" stopIfTrue="1" operator="greaterThan">
-      <formula>100</formula>
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="lessThan">
+      <formula>1200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>-150</formula>
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="greaterThan">
+      <formula>1500</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:C32">
+  <conditionalFormatting sqref="B34:C34">
     <cfRule type="cellIs" dxfId="16" priority="3" operator="between">
       <formula>1800</formula>
       <formula>2200</formula>
@@ -2272,7 +2319,7 @@
       <formula>2200</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:C33">
+  <conditionalFormatting sqref="B35:C35">
     <cfRule type="cellIs" dxfId="13" priority="2" operator="between">
       <formula>20000</formula>
       <formula>30000</formula>
@@ -2284,24 +2331,24 @@
       <formula>30000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:C21">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="between">
-      <formula>1300</formula>
-      <formula>1500</formula>
+  <conditionalFormatting sqref="B46:C47">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="between">
+      <formula>100</formula>
+      <formula>-150</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThan">
-      <formula>1200</formula>
+    <cfRule type="cellIs" dxfId="9" priority="11" stopIfTrue="1" operator="greaterThan">
+      <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThan">
-      <formula>1500</formula>
+    <cfRule type="cellIs" dxfId="8" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>-150</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37:B40" xr:uid="{E518D0F0-45C6-F242-A698-4E4B9A728BB7}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39:B42" xr:uid="{E518D0F0-45C6-F242-A698-4E4B9A728BB7}">
       <formula1>$E$2:$E$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41" xr:uid="{8DC648BB-93DE-C840-9E44-EAF3C10BDC94}">
-      <formula1>$A$37:$A$40</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43" xr:uid="{8DC648BB-93DE-C840-9E44-EAF3C10BDC94}">
+      <formula1>$A$39:$A$42</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -2316,7 +2363,7 @@
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{065E84C8-F917-6C44-8247-040A051917D6}">
           <x14:formula1>
             <xm:f>Assumptions!$D$2:$D$3</xm:f>
@@ -2331,10 +2378,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FB44FC-8A79-B646-9490-7C5BF2217343}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2349,11 +2396,11 @@
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="E1" s="29" t="s">
+      <c r="C1" s="36"/>
+      <c r="E1" s="28" t="s">
         <v>65</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -2361,7 +2408,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="9" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="9">
@@ -2488,7 +2535,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>44</v>
@@ -2499,12 +2546,12 @@
         <v>27</v>
       </c>
       <c r="B17" s="15">
-        <f>IF(B16="Conventional - 5%",0.05,0.1)</f>
-        <v>0.05</v>
+        <f>IF(B16="Conventional - 5%",0.05,0.035)</f>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C17" s="15">
-        <f>IF(C16="Conventional - 5%",0.05,0.1)</f>
-        <v>0.1</v>
+        <f>IF(C16="Conventional - 5%",0.05,0.035)</f>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2513,456 +2560,481 @@
       </c>
       <c r="B18" s="12">
         <f>$B$3*B17</f>
-        <v>17750</v>
+        <v>12425.000000000002</v>
       </c>
       <c r="C18" s="12">
         <f>$B$3*C17</f>
-        <v>35500</v>
+        <v>12425.000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="B19" s="12">
         <f>$B$3-B18</f>
-        <v>337250</v>
+        <v>342575</v>
       </c>
       <c r="C19" s="12">
         <f>$B$3-C18</f>
-        <v>319500</v>
+        <v>342575</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="12">
+        <f>B3*Assumptions!$B$7</f>
+        <v>6212.5000000000009</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="12">
+        <f>B19+B20</f>
+        <v>348787.5</v>
+      </c>
+      <c r="C21" s="12">
+        <f>C19+C20</f>
+        <v>342575</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B22" s="14">
         <f>Assumptions!$B$6</f>
         <v>6.2199999999999998E-2</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C22" s="14">
         <f>Assumptions!$B$6</f>
         <v>6.2199999999999998E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="25">
-        <f>PMT(B20/12,Assumptions!$B$9*12, -'1148 36th St'!B19)</f>
-        <v>2069.930489735641</v>
-      </c>
-      <c r="C21" s="25">
-        <f>PMT(C20/12,Assumptions!$B$9*12, -'1148 36th St'!C19)</f>
-        <v>1960.9867797495547</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="B23" s="23">
+        <f>PMT(B22/12,Assumptions!$B$9*12, -'1148 36th St'!B21)</f>
+        <v>2140.7439012265972</v>
+      </c>
+      <c r="C23" s="23">
+        <f>PMT(C22/12,Assumptions!$B$9*12, -'1148 36th St'!C21)</f>
+        <v>2102.6136027314669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="11">
-        <f>B19*Assumptions!$B$8</f>
-        <v>2866.625</v>
-      </c>
-      <c r="C22" s="11">
-        <f>C19*Assumptions!$B$8</f>
-        <v>2715.75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
+      <c r="B24" s="11">
+        <f>B21*Assumptions!$B$8</f>
+        <v>2964.6937500000004</v>
+      </c>
+      <c r="C24" s="11">
+        <f>C21*Assumptions!$B$8</f>
+        <v>2911.8875000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="11">
-        <f>B22/12</f>
-        <v>238.88541666666666</v>
-      </c>
-      <c r="C23" s="11">
-        <f>C22/12</f>
-        <v>226.3125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
+      <c r="B25" s="11">
+        <f>B24/12</f>
+        <v>247.05781250000004</v>
+      </c>
+      <c r="C25" s="11">
+        <f>C24/12</f>
+        <v>242.65729166666668</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="21">
-        <f>B23*12*Assumptions!$B$9</f>
-        <v>85998.75</v>
-      </c>
-      <c r="C24" s="21">
-        <f>C23*12*Assumptions!$B$9</f>
-        <v>81472.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="12">
-        <f>$B$3*Assumptions!$B$2</f>
-        <v>7100</v>
-      </c>
-      <c r="C25" s="12">
-        <f>$B$3*Assumptions!$B$2</f>
-        <v>7100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="12">
-        <f>B25/12</f>
-        <v>591.66666666666663</v>
-      </c>
-      <c r="C26" s="12">
-        <f>C25/12</f>
-        <v>591.66666666666663</v>
+      <c r="B26" s="21">
+        <f>B25*12*Assumptions!$B$9</f>
+        <v>88940.812500000015</v>
+      </c>
+      <c r="C26" s="21">
+        <f>C25*12*Assumptions!$B$9</f>
+        <v>87356.625000000015</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B27" s="12">
-        <f>$B$3*Assumptions!$B$10</f>
-        <v>2485</v>
+        <f>$B$3*Assumptions!$B$2</f>
+        <v>5555.75</v>
       </c>
       <c r="C27" s="12">
-        <f>$B$3*Assumptions!$B$10</f>
-        <v>2485</v>
+        <f>$B$3*Assumptions!$B$2</f>
+        <v>5555.75</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="12">
         <f>B27/12</f>
-        <v>207.08333333333334</v>
+        <v>462.97916666666669</v>
       </c>
       <c r="C28" s="12">
         <f>C27/12</f>
-        <v>207.08333333333334</v>
+        <v>462.97916666666669</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="12">
+        <f>$B$3*Assumptions!$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="12">
+        <f>$B$3*Assumptions!$B$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="12">
+        <f>B29/12</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="12">
+        <f>C29/12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="25">
-        <f>B21+B23+B28+B26</f>
-        <v>3107.5659064023075</v>
-      </c>
-      <c r="C29" s="25">
-        <f>C21+C23+C28+C26</f>
-        <v>2986.0492797495544</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="B31" s="23">
+        <f>B23+B25+B30+B28</f>
+        <v>2850.7808803932639</v>
+      </c>
+      <c r="C31" s="23">
+        <f>C23+C25+C30+C28</f>
+        <v>2808.2500610648003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="23">
-        <f>Assumptions!$B$3*'1148 36th St'!B29</f>
-        <v>258.96382553352561</v>
-      </c>
-      <c r="C30" s="23">
-        <f>Assumptions!$B$3*'1148 36th St'!C29</f>
-        <v>248.83743997912953</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="B32" s="23">
+        <f>Assumptions!$B$3*'1148 36th St'!B31</f>
+        <v>237.56507336610531</v>
+      </c>
+      <c r="C32" s="23">
+        <f>Assumptions!$B$3*'1148 36th St'!C31</f>
+        <v>234.02083842206667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="11">
-        <f>B29*Assumptions!$B$4</f>
-        <v>155.3782953201154</v>
-      </c>
-      <c r="C31" s="11">
-        <f>C29*Assumptions!$B$4</f>
-        <v>149.30246398747772</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
+      <c r="B33" s="11">
+        <f>B31*Assumptions!$B$4</f>
+        <v>142.53904401966321</v>
+      </c>
+      <c r="C33" s="11">
+        <f>C31*Assumptions!$B$4</f>
+        <v>140.41250305324002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="33">
-        <f>SUM(B29:B31)</f>
-        <v>3521.9080272559486</v>
-      </c>
-      <c r="C32" s="33">
-        <f>SUM(C29:C31)</f>
-        <v>3384.189183716162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
+      <c r="B34" s="29">
+        <f>SUM(B31:B33)</f>
+        <v>3230.8849977790328</v>
+      </c>
+      <c r="C34" s="29">
+        <f>SUM(C31:C33)</f>
+        <v>3182.6834025401072</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="34">
+      <c r="B35" s="30">
         <f>SUM(B13,B18)</f>
-        <v>31950</v>
-      </c>
-      <c r="C33" s="34">
+        <v>26625</v>
+      </c>
+      <c r="C35" s="30">
         <f>SUM(C13,C18)</f>
-        <v>49700</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+        <v>26625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>57</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="19">
-        <f>VLOOKUP(B37,$E$2:$F$5,2,FALSE)</f>
-        <v>825</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="19">
-        <f>VLOOKUP(B38,$E$2:$F$5,2,FALSE)</f>
-        <v>825</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" s="19">
         <f>VLOOKUP(B39,$E$2:$F$5,2,FALSE)</f>
-        <v>925</v>
+        <v>825</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="19">
         <f>VLOOKUP(B40,$E$2:$F$5,2,FALSE)</f>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="19">
+        <f>VLOOKUP(B41,$E$2:$F$5,2,FALSE)</f>
         <v>925</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="31"/>
-    </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="12">
-        <f>SUM(C37:C40)</f>
-        <v>3500</v>
+      <c r="A42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="19">
+        <f>VLOOKUP(B42,$E$2:$F$5,2,FALSE)</f>
+        <v>925</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="12">
-        <f>C42-VLOOKUP(B41,A37:C40,3,FALSE)</f>
-        <v>2675</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="37"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="32">
-        <f>C43-B32</f>
-        <v>-846.90802725594858</v>
-      </c>
-      <c r="C44" s="32">
-        <f>C43-C32</f>
-        <v>-709.18918371616201</v>
+        <v>60</v>
+      </c>
+      <c r="C44" s="12">
+        <f>SUM(C39:C42)</f>
+        <v>3500</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="32">
-        <f>C42-B32</f>
-        <v>-21.908027255948582</v>
-      </c>
-      <c r="C45" s="32">
-        <f>C42-C32</f>
-        <v>115.81081628383799</v>
+        <v>62</v>
+      </c>
+      <c r="C45" s="12">
+        <f>C44-VLOOKUP(B43,A39:C42,3,FALSE)</f>
+        <v>2675</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="32">
-        <f>B44*12</f>
-        <v>-10162.896327071383</v>
-      </c>
-      <c r="C46" s="32">
-        <f>C44*12</f>
-        <v>-8510.2702045939441</v>
+        <v>61</v>
+      </c>
+      <c r="B46" s="12">
+        <f>C45-B34</f>
+        <v>-555.8849977790328</v>
+      </c>
+      <c r="C46" s="12">
+        <f>C45-C34</f>
+        <v>-507.68340254010718</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="12">
+        <f>C44-B34</f>
+        <v>269.1150022209672</v>
+      </c>
+      <c r="C47" s="12">
+        <f>C44-C34</f>
+        <v>317.31659745989282</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="12">
+        <f>B46*12</f>
+        <v>-6670.6199733483936</v>
+      </c>
+      <c r="C48" s="12">
+        <f>C46*12</f>
+        <v>-6092.2008304812862</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B47" s="32">
-        <f>B45*12</f>
-        <v>-262.89632707138298</v>
-      </c>
-      <c r="C47" s="32">
-        <f>C45*12</f>
-        <v>1389.7297954060559</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="28"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="35" t="s">
+      <c r="B49" s="12">
+        <f>B47*12</f>
+        <v>3229.3800266516064</v>
+      </c>
+      <c r="C49" s="12">
+        <f>C47*12</f>
+        <v>3807.7991695187138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="27"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="31" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="28" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="7">
+        <f>B46/$B$3</f>
+        <v>-1.5658732331803741E-3</v>
+      </c>
+      <c r="C52" s="7">
+        <f>C46/$B$3</f>
+        <v>-1.4300940916622737E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="7">
-        <f>B44/$B$3</f>
-        <v>-2.3856564148054889E-3</v>
-      </c>
-      <c r="C50" s="7">
-        <f>C44/$B$3</f>
-        <v>-1.9977160104680618E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" s="7">
-        <f>B45/$B$3</f>
-        <v>-6.1712752833657984E-5</v>
-      </c>
-      <c r="C51" s="7">
-        <f>C45/$B$3</f>
-        <v>3.2622765150376902E-4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="28" t="s">
+      <c r="B53" s="7">
+        <f>B47/$B$3</f>
+        <v>7.5807042879145689E-4</v>
+      </c>
+      <c r="C53" s="7">
+        <f>C47/$B$3</f>
+        <v>8.9384957030955723E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="7">
-        <f>B44/B$33</f>
-        <v>-2.6507293497838768E-2</v>
-      </c>
-      <c r="C52" s="7">
-        <f>C44/C$33</f>
-        <v>-1.4269400074771871E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="28" t="s">
+      <c r="B54" s="7">
+        <f>B46/B$35</f>
+        <v>-2.0878309775738322E-2</v>
+      </c>
+      <c r="C54" s="7">
+        <f>C46/C$35</f>
+        <v>-1.906792122216365E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="7">
-        <f>B45/B$33</f>
-        <v>-6.8569725370731089E-4</v>
-      </c>
-      <c r="C53" s="7">
-        <f>C45/C$33</f>
-        <v>2.3301975107412071E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="28" t="s">
+      <c r="B55" s="7">
+        <f>B47/B$35</f>
+        <v>1.0107605717219425E-2</v>
+      </c>
+      <c r="C55" s="7">
+        <f>C47/C$35</f>
+        <v>1.1917994270794097E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="40">
-        <f>$B$3/C$42</f>
+      <c r="B56" s="39">
+        <f>$B$3/C$44</f>
         <v>101.42857142857143</v>
       </c>
-      <c r="C54" s="40"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="28" t="s">
+      <c r="C56" s="39"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="28" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="28" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="28" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="27" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B56:C56"/>
   </mergeCells>
-  <conditionalFormatting sqref="B44:C45">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="B23:C23">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+      <formula>1200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="lessThan">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+      <formula>1200</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:C32">
+  <conditionalFormatting sqref="B34:C34">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>1500</formula>
     </cfRule>
@@ -2970,7 +3042,7 @@
       <formula>1500</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:C33">
+  <conditionalFormatting sqref="B35:C35">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>25000</formula>
     </cfRule>
@@ -2978,19 +3050,19 @@
       <formula>25000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:C21">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>1200</formula>
+  <conditionalFormatting sqref="B46:C47">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="greaterThan">
+      <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
-      <formula>1200</formula>
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41" xr:uid="{807D11E1-A2D4-E645-8C28-48710DE572C2}">
-      <formula1>$A$37:$A$40</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43" xr:uid="{807D11E1-A2D4-E645-8C28-48710DE572C2}">
+      <formula1>$A$39:$A$42</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37:B40" xr:uid="{DA2C9D1F-3E96-1543-8104-633C830365BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39:B42" xr:uid="{DA2C9D1F-3E96-1543-8104-633C830365BE}">
       <formula1>$E$2:$E$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/Real Estate Investing.xlsx
+++ b/Real Estate Investing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/armaangupta/Documents/Repositories/propdeals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160E997E-10D3-034C-84AB-B6D586F81D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABC6B7F-0ED8-5440-9B0C-BF44490E2279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="760" windowWidth="14980" windowHeight="18740" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2541,7 +2541,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2676,8 +2676,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView zoomScale="93" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3403,7 +3403,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4851,7 +4851,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5538,7 +5538,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6509,8 +6509,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7244,8 +7244,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="163" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView zoomScale="163" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7979,8 +7979,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="XEW10" zoomScale="125" workbookViewId="0">
-      <selection activeCell="XFD32" sqref="XFD32"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8714,8 +8714,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9449,8 +9449,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10196,8 +10196,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="AN25" sqref="AN25"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10931,8 +10931,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="137" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView zoomScale="137" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
